--- a/assets/cursos/EP/LOQ4228.xlsx
+++ b/assets/cursos/EP/LOQ4228.xlsx
@@ -55,7 +55,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -79,7 +79,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840535 - Messias Borges Silva</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -112,27 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Desenvolvimento e apresentação do Projeto de Trabalho de Conclusão de Curso (TCC) a ser desenvolvido na disciplina de Trabalho de Conclusão de Curso II, conforme norma do Departamento de Engenharia Química.</t>
+    <t>Desenvolvimento e apresentação do Projeto monografia a ser desenvolvida na disciplina de Trabalho de Graduação em Engenharia de Produção II, conforme norma do Curso de Engenharia de Produção</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Uma única prova de qualificação perante uma banca com 2 examinadores. A nota da disciplina será decidida pelos docentes da banca.</t>
+    <t>Avaliação Ad hoc por 2 examinadores. A nota da disciplina será a média das duas notas</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Reapresentação do trabalho modificado para nova avaliação.</t>
+    <t>Reapresentação do trabalho modificado para nova avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005.
-GIL, A.C. Como elaborar projetos de pesquisa. 5 ed. Atlas, São Paulo, 2010.
-MEDEIROS, J. B. Redação Cientifica: A Prática de Fichamentos, Resumos e Resenhas. 11 ed. São Paulo: Atlas, 2009</t>
+    <t>Cauchick-Miguel, P. A.,   Metodologia de pesquisa em engenharia de produção e gestão de operações / Afonso Fleury ... [et al.] ; coordenação . - 3. ed. - Rio de Janeiro : Elsevier, 2018. Cauchick-Miguel, P. A.,   Metodologia de pesquisa em engenharia , 1. ed. - Rio de Janeiro : GEN LTC, 2019. BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005.GIL, A.C. Como elaborar projetos de pesquisa. 5 ed. Atlas, São Paulo, 2010.MEDEIROS, J. B. Redação Cientifica: A Prática de Fichamentos, Resumos e Resenhas. 11 ed. São Paulo: Atlas, 2009</t>
   </si>
   <si>
     <t>Requisitos:</t>
